--- a/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_FXRates1.xlsx
+++ b/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_FXRates1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723454\Documents\GDE-8271\BEFORE EOD\TL_FX_05_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_04_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6306F128-5E1E-46E5-98B7-12A56A65921F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B0BA2-C4E3-41CB-ADC0-82100D78105A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>12.0594</t>
   </si>
   <si>
-    <t>2021-10-16</t>
-  </si>
-  <si>
     <t>COMRLENDING</t>
   </si>
   <si>
@@ -352,7 +349,10 @@
     <t>12.0612</t>
   </si>
   <si>
-    <t>11.11</t>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,6 +422,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,7 +743,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -819,647 +820,647 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
+      <c r="H2" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+      <c r="H3" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+      <c r="H4" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
+      <c r="H5" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
+      <c r="H6" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
+      <c r="H7" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
+      <c r="H8" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
+      <c r="H9" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
+      <c r="H10" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
+      <c r="H11" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
+      <c r="H12" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
+      <c r="H13" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
+      <c r="H14" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>81</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
+      <c r="H15" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>88</v>
       </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
+      <c r="H16" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>93</v>
       </c>
-      <c r="G17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
+      <c r="H17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>97</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>98</v>
       </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
+      <c r="H18" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>102</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>103</v>
       </c>
-      <c r="G19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
+      <c r="H19" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>106</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>107</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>108</v>
       </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
+      <c r="H20" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
